--- a/medicine/Enfance/Alida_de_Savignac/Alida_de_Savignac.xlsx
+++ b/medicine/Enfance/Alida_de_Savignac/Alida_de_Savignac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alida d'Abillon de Savignac, plus  connue sous le nom Alida de Savignac, née le 5 juillet 1790 à Paris et morte le 15 mars 1847 à Paris, est une femme de lettres française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adélaïde Esther Charles d'Abillon de Savignac est la fille de Pierre François d'Abillon, marquis de Savignac, lieutenant des vaisseaux du roi, chevalier de l'ordre royal et militaire de Saint-Louis, et de Marie Gabrielle Sophie de Liniers.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Livre des petites filles (1882, 1884)
 La Mère Valentin, ou les Causeries de la bonne femme, 4e édition (1882)
